--- a/Data/Lgas_30_30/analysis.xlsx
+++ b/Data/Lgas_30_30/analysis.xlsx
@@ -7557,8 +7557,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J903"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A472" zoomScale="75" workbookViewId="0">
+      <selection activeCell="L486" sqref="L486"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
